--- a/Brothers_AMS/TemplateFiles/ExportReports/WorkTimeSummary.xlsx
+++ b/Brothers_AMS/TemplateFiles/ExportReports/WorkTimeSummary.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,19 +52,19 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>Present (B&amp;Y)</t>
-  </si>
-  <si>
-    <t>Absent(B)</t>
-  </si>
-  <si>
-    <t>Absent(Y)</t>
-  </si>
-  <si>
     <t>Absent(ML)</t>
   </si>
   <si>
     <t>Attendance Rate</t>
+  </si>
+  <si>
+    <t>Present (D&amp;N)</t>
+  </si>
+  <si>
+    <t>Absent(D&amp;N)</t>
+  </si>
+  <si>
+    <t>Absent(HD)</t>
   </si>
 </sst>
 </file>
@@ -421,14 +421,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="15.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -546,19 +549,19 @@
         <v>31</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Brothers_AMS/TemplateFiles/ExportReports/WorkTimeSummary.xlsx
+++ b/Brothers_AMS/TemplateFiles/ExportReports/WorkTimeSummary.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AMSSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -109,8 +109,332 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF04B404"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929495"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4E8EFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4E8EFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929495"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF04B404"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF04B404"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929495"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4E8EFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF04B404"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929495"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4E8EFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF04B404"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929495"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4E8EFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929495"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4E8EFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929495"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4E8EFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4E8EFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF7401"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF04B404"/>
+      <color rgb="FF929495"/>
+      <color rgb="FF4E8EFF"/>
+      <color rgb="FFDF7401"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -421,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +889,35 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:AK1048576">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"SL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"VL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"NW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"AB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"ML"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"P(D)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"P(N)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"TR(D)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"TR(N)"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Brothers_AMS/TemplateFiles/ExportReports/WorkTimeSummary.xlsx
+++ b/Brothers_AMS/TemplateFiles/ExportReports/WorkTimeSummary.xlsx
@@ -109,7 +109,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9FF97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -169,7 +183,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFAF67FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -239,6 +253,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE9FF97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -268,153 +310,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF4E8EFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDF7401"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF04B404"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929495"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4E8EFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDF7401"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF04B404"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929495"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4E8EFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDF7401"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929495"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4E8EFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDF7401"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929495"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4E8EFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDF7401"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4E8EFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDF7401"/>
         </patternFill>
       </fill>
     </dxf>
@@ -429,6 +324,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFAF67FF"/>
+      <color rgb="FFE9FF97"/>
       <color rgb="FF04B404"/>
       <color rgb="FF929495"/>
       <color rgb="FF4E8EFF"/>
@@ -746,7 +643,7 @@
   <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,32 +787,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:AK1048576">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"SL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"VL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"NW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"ML"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"P(D)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"P(N)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"TR(D)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"TR(N)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>"HD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"EL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
